--- a/dianyun.xlsx
+++ b/dianyun.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20341"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D361180E-E6B5-46F7-AA11-2DEA3B16E47A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D54C6DFA-D672-4E4D-93CD-57616464B9D0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -448,7 +448,7 @@
   <dimension ref="A1:N26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J21" sqref="J21"/>
+      <selection activeCell="F2" sqref="F2:F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -486,21 +486,24 @@
       <c r="A2" s="1">
         <v>1</v>
       </c>
+      <c r="B2">
+        <v>0.39</v>
+      </c>
       <c r="C2">
         <f>B2+0.12</f>
-        <v>0.12</v>
+        <v>0.51</v>
       </c>
       <c r="D2">
         <f>C2*SIN(N18)</f>
-        <v>-2.8011174260456368E-2</v>
+        <v>-0.11904749060693956</v>
       </c>
       <c r="E2">
         <f>C2*COS(N18)*SIN(N11)</f>
-        <v>2.7237350459402683E-2</v>
+        <v>0.1157587394524614</v>
       </c>
       <c r="F2">
         <f>C2*COS(N18)*COS(N11)</f>
-        <v>0.11346145097125289</v>
+        <v>0.48221116662782482</v>
       </c>
       <c r="H2" t="s">
         <v>10</v>
@@ -510,21 +513,24 @@
       <c r="A3" s="1">
         <v>2</v>
       </c>
+      <c r="B3">
+        <v>0.38100000000000001</v>
+      </c>
       <c r="C3">
         <f t="shared" ref="C3:C26" si="0">B3+0.12</f>
-        <v>0.12</v>
+        <v>0.501</v>
       </c>
       <c r="D3">
         <f>C3*SIN(M18)</f>
-        <v>-2.8011174260456368E-2</v>
+        <v>-0.11694665253740534</v>
       </c>
       <c r="E3">
         <f>C3*COS(M18)*SIN(M11)</f>
-        <v>1.3713716773780837E-2</v>
+        <v>5.7254767530534996E-2</v>
       </c>
       <c r="F3">
         <f>C3*COS(M18)*COS(M11)</f>
-        <v>0.1158762619728427</v>
+        <v>0.48378339373661827</v>
       </c>
       <c r="H3" t="s">
         <v>8</v>
@@ -534,13 +540,16 @@
       <c r="A4" s="1">
         <v>3</v>
       </c>
+      <c r="B4">
+        <v>0.38200000000000001</v>
+      </c>
       <c r="C4">
         <f t="shared" si="0"/>
-        <v>0.12</v>
+        <v>0.502</v>
       </c>
       <c r="D4">
         <f>C4*SIN(L18)</f>
-        <v>-2.8011174260456368E-2</v>
+        <v>-0.1171800789895758</v>
       </c>
       <c r="E4">
         <f>C4*COS(L18)*SIN(L11)</f>
@@ -548,7 +557,7 @@
       </c>
       <c r="F4">
         <f>C4*COS(L18)*COS(L11)</f>
-        <v>0.11668493525965701</v>
+        <v>0.48813197916956513</v>
       </c>
       <c r="H4" t="s">
         <v>9</v>
@@ -558,42 +567,48 @@
       <c r="A5" s="1">
         <v>4</v>
       </c>
+      <c r="B5">
+        <v>0.39100000000000001</v>
+      </c>
       <c r="C5">
         <f t="shared" si="0"/>
-        <v>0.12</v>
+        <v>0.51100000000000001</v>
       </c>
       <c r="D5">
         <f>C5*SIN(K18)</f>
-        <v>-2.8011174260456368E-2</v>
+        <v>-0.11928091705911004</v>
       </c>
       <c r="E5">
         <f>C5*COS(K18)*SIN(K11)</f>
-        <v>-1.3713716773780837E-2</v>
+        <v>-5.8397577261683403E-2</v>
       </c>
       <c r="F5">
         <f>C5*COS(K18)*COS(K11)</f>
-        <v>0.1158762619728427</v>
+        <v>0.49343974890102182</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>5</v>
       </c>
+      <c r="B6">
+        <v>0.41299999999999998</v>
+      </c>
       <c r="C6">
         <f t="shared" si="0"/>
-        <v>0.12</v>
+        <v>0.53299999999999992</v>
       </c>
       <c r="D6">
         <f>C6*SIN(J18)</f>
-        <v>-2.8011174260456368E-2</v>
+        <v>-0.12441629900686034</v>
       </c>
       <c r="E6">
         <f>C6*COS(J18)*SIN(J11)</f>
-        <v>-2.7237350459402683E-2</v>
+        <v>-0.1209792316238469</v>
       </c>
       <c r="F6">
         <f>C6*COS(J18)*COS(J11)</f>
-        <v>0.11346145097125289</v>
+        <v>0.50395794473064826</v>
       </c>
       <c r="J6" t="s">
         <v>7</v>
@@ -603,21 +618,24 @@
       <c r="A7" s="2">
         <v>6</v>
       </c>
+      <c r="B7">
+        <v>0.371</v>
+      </c>
       <c r="C7">
         <f t="shared" si="0"/>
-        <v>0.12</v>
+        <v>0.49099999999999999</v>
       </c>
       <c r="D7">
         <f>C7*SIN(N17)</f>
-        <v>-1.4103328841822402E-2</v>
+        <v>-5.7706120511123331E-2</v>
       </c>
       <c r="E7">
         <f>C7*COS(N17)*SIN(N10)</f>
-        <v>2.7817045615603241E-2</v>
+        <v>0.11381807831050994</v>
       </c>
       <c r="F7">
         <f>C7*COS(N17)*COS(N10)</f>
-        <v>0.11587626197284269</v>
+        <v>0.47412703857221467</v>
       </c>
       <c r="J7" s="6">
         <v>-0.2356</v>
@@ -639,21 +657,24 @@
       <c r="A8" s="2">
         <v>7</v>
       </c>
+      <c r="B8">
+        <v>0.36299999999999999</v>
+      </c>
       <c r="C8">
         <f t="shared" si="0"/>
-        <v>0.12</v>
+        <v>0.48299999999999998</v>
       </c>
       <c r="D8">
         <f>C8*SIN(M17)</f>
-        <v>-1.4103328841822402E-2</v>
+        <v>-5.6765898588335167E-2</v>
       </c>
       <c r="E8">
         <f>C8*COS(M17)*SIN(M10)</f>
-        <v>1.4005587130228182E-2</v>
+        <v>5.6372488199168437E-2</v>
       </c>
       <c r="F8">
         <f>C8*COS(M17)*COS(M10)</f>
-        <v>0.1183424676298285</v>
+        <v>0.47632843221005977</v>
       </c>
       <c r="J8" s="6">
         <v>-0.2356</v>
@@ -675,13 +696,16 @@
       <c r="A9" s="2">
         <v>8</v>
       </c>
+      <c r="B9">
+        <v>0.36299999999999999</v>
+      </c>
       <c r="C9">
         <f t="shared" si="0"/>
-        <v>0.12</v>
+        <v>0.48299999999999998</v>
       </c>
       <c r="D9">
         <f>C9*SIN(L17)</f>
-        <v>-1.4103328841822402E-2</v>
+        <v>-5.6765898588335167E-2</v>
       </c>
       <c r="E9">
         <f>C9*COS(L17)*SIN(L10)</f>
@@ -689,7 +713,7 @@
       </c>
       <c r="F9">
         <f>C9*COS(L17)*COS(L10)</f>
-        <v>0.11916835198818275</v>
+        <v>0.47965261675243559</v>
       </c>
       <c r="J9" s="6">
         <v>-0.2356</v>
@@ -711,21 +735,24 @@
       <c r="A10" s="2">
         <v>9</v>
       </c>
+      <c r="B10">
+        <v>0.373</v>
+      </c>
       <c r="C10">
         <f t="shared" si="0"/>
-        <v>0.12</v>
+        <v>0.49299999999999999</v>
       </c>
       <c r="D10">
         <f>C10*SIN(K17)</f>
-        <v>-1.4103328841822402E-2</v>
+        <v>-5.7941175991820373E-2</v>
       </c>
       <c r="E10">
         <f>C10*COS(K17)*SIN(K10)</f>
-        <v>-1.4005587130228182E-2</v>
+        <v>-5.7539620460020785E-2</v>
       </c>
       <c r="F10">
         <f>C10*COS(K17)*COS(K10)</f>
-        <v>0.1183424676298285</v>
+        <v>0.48619030451254547</v>
       </c>
       <c r="J10" s="6">
         <v>-0.2356</v>
@@ -747,21 +774,24 @@
       <c r="A11" s="2">
         <v>10</v>
       </c>
+      <c r="B11">
+        <v>0.39500000000000002</v>
+      </c>
       <c r="C11">
         <f t="shared" si="0"/>
-        <v>0.12</v>
+        <v>0.51500000000000001</v>
       </c>
       <c r="D11">
         <f>C11*SIN(J17)</f>
-        <v>-1.4103328841822402E-2</v>
+        <v>-6.0526786279487814E-2</v>
       </c>
       <c r="E11">
         <f>C11*COS(J17)*SIN(J10)</f>
-        <v>-2.7817045615603241E-2</v>
+        <v>-0.1193814874336306</v>
       </c>
       <c r="F11">
         <f>C11*COS(J17)*COS(J10)</f>
-        <v>0.11587626197284269</v>
+        <v>0.4973022909667833</v>
       </c>
       <c r="J11" s="6">
         <v>-0.2356</v>
@@ -783,9 +813,12 @@
       <c r="A12" s="3">
         <v>11</v>
       </c>
+      <c r="B12">
+        <v>0.36299999999999999</v>
+      </c>
       <c r="C12">
         <f t="shared" si="0"/>
-        <v>0.12</v>
+        <v>0.48299999999999998</v>
       </c>
       <c r="D12">
         <f>C12*SIN(N16)</f>
@@ -793,20 +826,23 @@
       </c>
       <c r="E12">
         <f>C12*COS(N16)*SIN(N9)</f>
-        <v>2.8011174260456368E-2</v>
+        <v>0.11274497639833687</v>
       </c>
       <c r="F12">
         <f>C12*COS(N16)*COS(N9)</f>
-        <v>0.11668493525965701</v>
+        <v>0.46965686442011945</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A13" s="3">
         <v>12</v>
       </c>
+      <c r="B13">
+        <v>0.35699999999999998</v>
+      </c>
       <c r="C13">
         <f t="shared" si="0"/>
-        <v>0.12</v>
+        <v>0.47699999999999998</v>
       </c>
       <c r="D13">
         <f>C13*SIN(M16)</f>
@@ -814,11 +850,11 @@
       </c>
       <c r="E13">
         <f>C13*COS(M16)*SIN(M9)</f>
-        <v>1.4103328841822402E-2</v>
+        <v>5.6060732146244047E-2</v>
       </c>
       <c r="F13">
         <f>C13*COS(M16)*COS(M9)</f>
-        <v>0.11916835198818275</v>
+        <v>0.47369419915302646</v>
       </c>
       <c r="J13" t="s">
         <v>6</v>
@@ -828,9 +864,12 @@
       <c r="A14" s="3">
         <v>13</v>
       </c>
+      <c r="B14">
+        <v>0.35699999999999998</v>
+      </c>
       <c r="C14">
         <f t="shared" si="0"/>
-        <v>0.12</v>
+        <v>0.47699999999999998</v>
       </c>
       <c r="D14">
         <f>C14*SIN(L16)</f>
@@ -842,7 +881,7 @@
       </c>
       <c r="F14">
         <f>C14*COS(L16)*COS(L9)</f>
-        <v>0.12</v>
+        <v>0.47699999999999998</v>
       </c>
       <c r="J14" s="6">
         <v>0.2356</v>
@@ -864,9 +903,12 @@
       <c r="A15" s="3">
         <v>14</v>
       </c>
+      <c r="B15">
+        <v>0.36599999999999999</v>
+      </c>
       <c r="C15">
         <f t="shared" si="0"/>
-        <v>0.12</v>
+        <v>0.48599999999999999</v>
       </c>
       <c r="D15">
         <f>C15*SIN(K16)</f>
@@ -874,11 +916,11 @@
       </c>
       <c r="E15">
         <f>C15*COS(K16)*SIN(K9)</f>
-        <v>-1.4103328841822402E-2</v>
+        <v>-5.7118481809380728E-2</v>
       </c>
       <c r="F15">
         <f>C15*COS(K16)*COS(K9)</f>
-        <v>0.11916835198818275</v>
+        <v>0.48263182555214018</v>
       </c>
       <c r="J15" s="6">
         <v>0.1178</v>
@@ -900,9 +942,12 @@
       <c r="A16" s="3">
         <v>15</v>
       </c>
+      <c r="B16">
+        <v>0.38700000000000001</v>
+      </c>
       <c r="C16">
         <f t="shared" si="0"/>
-        <v>0.12</v>
+        <v>0.50700000000000001</v>
       </c>
       <c r="D16">
         <f>C16*SIN(J16)</f>
@@ -910,11 +955,11 @@
       </c>
       <c r="E16">
         <f>C16*COS(J16)*SIN(J9)</f>
-        <v>-2.8011174260456368E-2</v>
+        <v>-0.11834721125042816</v>
       </c>
       <c r="F16">
         <f>C16*COS(J16)*COS(J9)</f>
-        <v>0.11668493525965701</v>
+        <v>0.49299385147205088</v>
       </c>
       <c r="J16" s="6">
         <v>0</v>
@@ -936,21 +981,24 @@
       <c r="A17" s="4">
         <v>16</v>
       </c>
+      <c r="B17">
+        <v>0.36499999999999999</v>
+      </c>
       <c r="C17">
         <f t="shared" si="0"/>
-        <v>0.12</v>
+        <v>0.48499999999999999</v>
       </c>
       <c r="D17">
         <f>C17*SIN(N15)</f>
-        <v>1.4103328841822402E-2</v>
+        <v>5.700095406903221E-2</v>
       </c>
       <c r="E17">
         <f>C17*COS(N15)*SIN(N8)</f>
-        <v>2.7817045615603241E-2</v>
+        <v>0.11242722602972978</v>
       </c>
       <c r="F17">
         <f>C17*COS(N15)*COS(N8)</f>
-        <v>0.11587626197284269</v>
+        <v>0.46833322547357253</v>
       </c>
       <c r="J17" s="6">
         <v>-0.1178</v>
@@ -972,21 +1020,24 @@
       <c r="A18" s="4">
         <v>17</v>
       </c>
+      <c r="B18">
+        <v>0.35599999999999998</v>
+      </c>
       <c r="C18">
         <f t="shared" si="0"/>
-        <v>0.12</v>
+        <v>0.47599999999999998</v>
       </c>
       <c r="D18">
         <f>C18*SIN(M15)</f>
-        <v>1.4103328841822402E-2</v>
+        <v>5.5943204405895529E-2</v>
       </c>
       <c r="E18">
         <f>C18*COS(M15)*SIN(M8)</f>
-        <v>1.4005587130228182E-2</v>
+        <v>5.555549561657179E-2</v>
       </c>
       <c r="F18">
         <f>C18*COS(M15)*COS(M8)</f>
-        <v>0.1183424676298285</v>
+        <v>0.46942512159831978</v>
       </c>
       <c r="J18" s="6">
         <v>-0.2356</v>
@@ -1008,13 +1059,16 @@
       <c r="A19" s="4">
         <v>18</v>
       </c>
+      <c r="B19">
+        <v>0.35599999999999998</v>
+      </c>
       <c r="C19">
         <f t="shared" si="0"/>
-        <v>0.12</v>
+        <v>0.47599999999999998</v>
       </c>
       <c r="D19">
         <f>C19*SIN(L15)</f>
-        <v>1.4103328841822402E-2</v>
+        <v>5.5943204405895529E-2</v>
       </c>
       <c r="E19">
         <f>C19*COS(L15)*SIN(L8)</f>
@@ -1022,104 +1076,119 @@
       </c>
       <c r="F19">
         <f>C19*COS(L15)*COS(L8)</f>
-        <v>0.11916835198818275</v>
+        <v>0.47270112955312493</v>
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A20" s="4">
         <v>19</v>
       </c>
+      <c r="B20">
+        <v>0.36799999999999999</v>
+      </c>
       <c r="C20">
         <f t="shared" si="0"/>
-        <v>0.12</v>
+        <v>0.48799999999999999</v>
       </c>
       <c r="D20">
         <f>C20*SIN(K15)</f>
-        <v>1.4103328841822402E-2</v>
+        <v>5.735353729007777E-2</v>
       </c>
       <c r="E20">
         <f>C20*COS(K15)*SIN(K8)</f>
-        <v>-1.4005587130228182E-2</v>
+        <v>-5.6956054329594608E-2</v>
       </c>
       <c r="F20">
         <f>C20*COS(K15)*COS(K8)</f>
-        <v>0.1183424676298285</v>
+        <v>0.48125936836130262</v>
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A21" s="4">
         <v>20</v>
       </c>
+      <c r="B21">
+        <v>0.38800000000000001</v>
+      </c>
       <c r="C21">
         <f t="shared" si="0"/>
-        <v>0.12</v>
+        <v>0.50800000000000001</v>
       </c>
       <c r="D21">
         <f>C21*SIN(J15)</f>
-        <v>1.4103328841822402E-2</v>
+        <v>5.9704092097048175E-2</v>
       </c>
       <c r="E21">
         <f>C21*COS(J15)*SIN(J8)</f>
-        <v>-2.7817045615603241E-2</v>
+        <v>-0.11775882643938707</v>
       </c>
       <c r="F21">
         <f>C21*COS(J15)*COS(J8)</f>
-        <v>0.11587626197284269</v>
+        <v>0.49054284235170076</v>
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A22" s="5">
         <v>21</v>
       </c>
+      <c r="B22">
+        <v>0.372</v>
+      </c>
       <c r="C22">
         <f t="shared" si="0"/>
-        <v>0.12</v>
+        <v>0.49199999999999999</v>
       </c>
       <c r="D22">
         <f>C22*SIN(N14)</f>
-        <v>2.8011174260456368E-2</v>
+        <v>0.11484581446787111</v>
       </c>
       <c r="E22">
         <f>C22*COS(N14)*SIN(N7)</f>
-        <v>2.7237350459402683E-2</v>
+        <v>0.11167313688355099</v>
       </c>
       <c r="F22">
         <f>C22*COS(N14)*COS(N7)</f>
-        <v>0.11346145097125289</v>
+        <v>0.46519194898213684</v>
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A23" s="5">
         <v>22</v>
       </c>
+      <c r="B23">
+        <v>0.36699999999999999</v>
+      </c>
       <c r="C23">
         <f t="shared" si="0"/>
-        <v>0.12</v>
+        <v>0.48699999999999999</v>
       </c>
       <c r="D23">
         <f>C23*SIN(M14)</f>
-        <v>2.8011174260456368E-2</v>
+        <v>0.11367868220701875</v>
       </c>
       <c r="E23">
         <f>C23*COS(M14)*SIN(M7)</f>
-        <v>1.3713716773780837E-2</v>
+        <v>5.5654833906927229E-2</v>
       </c>
       <c r="F23">
         <f>C23*COS(M14)*COS(M7)</f>
-        <v>0.1158762619728427</v>
+        <v>0.47026449650645324</v>
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A24" s="5">
         <v>23</v>
       </c>
+      <c r="B24">
+        <v>0.36599999999999999</v>
+      </c>
       <c r="C24">
         <f t="shared" si="0"/>
-        <v>0.12</v>
+        <v>0.48599999999999999</v>
       </c>
       <c r="D24">
         <f>C24*SIN(L14)</f>
-        <v>2.8011174260456368E-2</v>
+        <v>0.11344525575484829</v>
       </c>
       <c r="E24">
         <f>C24*COS(L14)*SIN(L7)</f>
@@ -1127,49 +1196,55 @@
       </c>
       <c r="F24">
         <f>C24*COS(L14)*COS(L7)</f>
-        <v>0.11668493525965701</v>
+        <v>0.47257398780161086</v>
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A25" s="5">
         <v>24</v>
       </c>
+      <c r="B25">
+        <v>0.376</v>
+      </c>
       <c r="C25">
         <f t="shared" si="0"/>
-        <v>0.12</v>
+        <v>0.496</v>
       </c>
       <c r="D25">
         <f>C25*SIN(K14)</f>
-        <v>2.8011174260456368E-2</v>
+        <v>0.11577952027655299</v>
       </c>
       <c r="E25">
         <f>C25*COS(K14)*SIN(K7)</f>
-        <v>-1.3713716773780837E-2</v>
+        <v>-5.6683362664960796E-2</v>
       </c>
       <c r="F25">
         <f>C25*COS(K14)*COS(K7)</f>
-        <v>0.1158762619728427</v>
+        <v>0.4789552161544165</v>
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A26" s="5">
         <v>25</v>
       </c>
+      <c r="B26">
+        <v>0.39900000000000002</v>
+      </c>
       <c r="C26">
         <f t="shared" si="0"/>
-        <v>0.12</v>
+        <v>0.51900000000000002</v>
       </c>
       <c r="D26">
         <f>C26*SIN(J14)</f>
-        <v>2.8011174260456368E-2</v>
+        <v>0.12114832867647379</v>
       </c>
       <c r="E26">
         <f>C26*COS(J14)*SIN(J7)</f>
-        <v>-2.7237350459402683E-2</v>
+        <v>-0.11780154073691661</v>
       </c>
       <c r="F26">
         <f>C26*COS(J14)*COS(J7)</f>
-        <v>0.11346145097125289</v>
+        <v>0.49072077545066872</v>
       </c>
     </row>
   </sheetData>

--- a/dianyun.xlsx
+++ b/dianyun.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20341"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20342"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D54C6DFA-D672-4E4D-93CD-57616464B9D0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{849A84B6-4C67-463E-AC21-93CF2D6DCA86}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>y</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -65,12 +65,67 @@
     <t>z=h*cosM*COSN</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>中间为坐标原点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>分别表示</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>x</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>和</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>y</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>方向的分度</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -84,6 +139,26 @@
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="8">
@@ -157,7 +232,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -165,6 +240,7 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -180,6 +256,82 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="图片 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{87AFC328-5BEA-4EB9-985C-116407336605}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:clrChange>
+            <a:clrFrom>
+              <a:srgbClr val="FFFFFF"/>
+            </a:clrFrom>
+            <a:clrTo>
+              <a:srgbClr val="FFFFFF">
+                <a:alpha val="0"/>
+              </a:srgbClr>
+            </a:clrTo>
+          </a:clrChange>
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="8143875" y="4248150"/>
+          <a:ext cx="2457450" cy="704850"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -448,7 +600,7 @@
   <dimension ref="A1:N26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2:F26"/>
+      <selection activeCell="Q23" sqref="Q23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1151,7 +1303,7 @@
         <v>0.46519194898213684</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:14" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A23" s="5">
         <v>22</v>
       </c>
@@ -1173,6 +1325,12 @@
       <c r="F23">
         <f>C23*COS(M14)*COS(M7)</f>
         <v>0.47026449650645324</v>
+      </c>
+      <c r="J23" t="s">
+        <v>11</v>
+      </c>
+      <c r="L23" s="7" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.2">
@@ -1251,5 +1409,6 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>